--- a/module/Inventory/test/InventoryTest/Data/Item Master.xlsx
+++ b/module/Inventory/test/InventoryTest/Data/Item Master.xlsx
@@ -1,26 +1,30 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23628"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Items\Upload\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\NMT\nmt-workspace\mla\module\Inventory\test\InventoryTest\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2521388D-9BF6-4231-A24F-D8AFC9AE1DD7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F616D68-F973-4A6C-9129-03F570AD5067}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Worksheet (3)" sheetId="3" r:id="rId1"/>
-    <sheet name="Worksheet (2)" sheetId="2" r:id="rId2"/>
-    <sheet name="Worksheet" sheetId="1" r:id="rId3"/>
+    <sheet name="Worksheet (5)" sheetId="5" r:id="rId1"/>
+    <sheet name="Worksheet (4)" sheetId="4" r:id="rId2"/>
+    <sheet name="Worksheet (3)" sheetId="3" r:id="rId3"/>
+    <sheet name="Worksheet (2)" sheetId="2" r:id="rId4"/>
+    <sheet name="Worksheet" sheetId="1" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Worksheet!$A$1:$O$1</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Worksheet (2)'!$A$1:$L$1</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Worksheet (3)'!$A$1:$J$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">Worksheet!$A$1:$O$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'Worksheet (2)'!$A$1:$L$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'Worksheet (3)'!$A$1:$J$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Worksheet (4)'!$A$1:$K$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Worksheet (5)'!$A$1:$J$1</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="411" uniqueCount="243">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="747" uniqueCount="427">
   <si>
     <t>#</t>
   </si>
@@ -618,161 +622,713 @@
     <t>Pipe air</t>
   </si>
   <si>
-    <t>Reset button to count meters 15A-1/2HP -125 - 250VAC</t>
-  </si>
-  <si>
-    <t>Wheels measure meters</t>
-  </si>
-  <si>
-    <t>The clock displays the number of meters</t>
-  </si>
-  <si>
-    <t>Contactor S-P11 &amp; MSO-11</t>
-  </si>
-  <si>
-    <t>Inverter 1.5KV 2HP (AS4-315-2HP)</t>
-  </si>
-  <si>
-    <t>Belt B32 B32-5A4</t>
-  </si>
-  <si>
-    <t>Belt B56 B56</t>
-  </si>
-  <si>
-    <t>Belt B42 B42-7L4</t>
-  </si>
-  <si>
-    <t>Belt B47 B47-U2</t>
-  </si>
-  <si>
-    <t>Rheostat 502 TRV24-YN-20S-B502-083C</t>
-  </si>
-  <si>
-    <t>Aptomat 30A 30A/415V</t>
-  </si>
-  <si>
-    <t>Glass fuse 10A-250V 10A-250V</t>
-  </si>
-  <si>
-    <t>Glass fuse 5A-250V 5A-250V</t>
-  </si>
-  <si>
-    <t>Light table (Yellow) TL-D-36W/840</t>
-  </si>
-  <si>
-    <t>Light table (white) TL-D90-36W/965</t>
-  </si>
-  <si>
-    <t>Hydraulic oil R32</t>
-  </si>
-  <si>
-    <t>Source transformer 380V/220/1.5KVA 380V/220/1.5KVA</t>
-  </si>
-  <si>
-    <t>Single switch ( forward, turn off, reverse the machine ) RENY R9C 11VN ; AC15-DC13</t>
-  </si>
-  <si>
-    <t>Single switch green RENY R9C 10VN ; AC15-DC13</t>
-  </si>
-  <si>
-    <t>Single switch light green RENY R9C 10VN ; AC15-DC13</t>
-  </si>
-  <si>
-    <t>stop switch CR-257R;5A;250 V</t>
-  </si>
-  <si>
-    <t>Photo sensor new machine : 1,2,3 BEN5M-MDT</t>
-  </si>
-  <si>
-    <t>Photo sensor old machine 4.5.6.7.8.9 PD5-1MA &amp; A3R-2MX</t>
-  </si>
-  <si>
-    <t>U Type Sensor</t>
-  </si>
-  <si>
-    <t>Light switch (old machine) 10-15A ;125-250V</t>
-  </si>
-  <si>
-    <t>Light switch (new machine) AC15-DC13 ; R9C -10VN</t>
-  </si>
-  <si>
-    <t>IC board Stt- 05 B STT-05B</t>
-  </si>
-  <si>
-    <t>IC board Stt- 01 B STT-01B</t>
-  </si>
-  <si>
-    <t>IC board Stt- 02 STT-01A</t>
-  </si>
-  <si>
-    <t>Gear motor GF1500-20S 2hp</t>
-  </si>
-  <si>
-    <t>20 2 HP / Motor TKJE80-1/20 2 HP</t>
-  </si>
-  <si>
-    <t>bearing lock pipe air</t>
-  </si>
-  <si>
-    <t>hydraulic oil pipes</t>
-  </si>
-  <si>
-    <t>Warning forward, reverse the machine 220 V</t>
-  </si>
-  <si>
-    <t>Motor ACO 1/2HP/0.375KW;50/60HZ;220/380V</t>
-  </si>
-  <si>
-    <t>Power off safety the machine</t>
-  </si>
-  <si>
-    <t>Rheostat 5K 5k</t>
-  </si>
-  <si>
-    <t>Oil cylinder LB 40*400</t>
-  </si>
-  <si>
-    <t>Bearing RHP 1025-1G</t>
-  </si>
-  <si>
-    <t>Bearing UCLF207</t>
-  </si>
-  <si>
-    <t>Bearing UCP205</t>
-  </si>
-  <si>
-    <t>Bearing UCPA207</t>
-  </si>
-  <si>
-    <t>Bearing UCFL208</t>
-  </si>
-  <si>
-    <t>Bearing UCFL206</t>
-  </si>
-  <si>
-    <t>Set of spindle counting meters</t>
-  </si>
-  <si>
     <t>Stock CF</t>
   </si>
   <si>
     <t>Purchase CF</t>
   </si>
   <si>
-    <t>Thermal relay Maker : Schneider - 1pcs</t>
-  </si>
-  <si>
-    <t>Maker : Schneider - 1pcs</t>
-  </si>
-  <si>
-    <t>Capacitor 368 MKT 368 MKT</t>
+    <t>14-65</t>
+  </si>
+  <si>
+    <t>Photocoupler-P155E</t>
+  </si>
+  <si>
+    <t>P155E</t>
+  </si>
+  <si>
+    <t>14-66</t>
+  </si>
+  <si>
+    <t>Power MOSFET-2SK3550</t>
+  </si>
+  <si>
+    <t>2SK3550</t>
+  </si>
+  <si>
+    <t>14-67</t>
+  </si>
+  <si>
+    <t>Transistor-L7824C2T</t>
+  </si>
+  <si>
+    <t>L7824C2T</t>
+  </si>
+  <si>
+    <t>14-68</t>
+  </si>
+  <si>
+    <t>Transistor-5S6 TO252</t>
+  </si>
+  <si>
+    <t>5S6 TO252</t>
+  </si>
+  <si>
+    <t>14-69</t>
+  </si>
+  <si>
+    <t>Transistor-J601</t>
+  </si>
+  <si>
+    <t>J601</t>
+  </si>
+  <si>
+    <t>14-70</t>
+  </si>
+  <si>
+    <t>Transistor-D25NF</t>
+  </si>
+  <si>
+    <t>D25NF</t>
+  </si>
+  <si>
+    <t>14-71</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IC-MS 1004 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">MS 1004 </t>
+  </si>
+  <si>
+    <t>14-72</t>
+  </si>
+  <si>
+    <t>Photocoupler-P185 GB J7</t>
+  </si>
+  <si>
+    <t>P185 GB J7</t>
+  </si>
+  <si>
+    <t>14-73</t>
+  </si>
+  <si>
+    <t>Transistor-K8A65DX</t>
+  </si>
+  <si>
+    <t>K8A65DX</t>
+  </si>
+  <si>
+    <t>14-74</t>
+  </si>
+  <si>
+    <t>Electric terminal-2-250</t>
+  </si>
+  <si>
+    <t>2-250</t>
+  </si>
+  <si>
+    <t>14-75</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SMD Resistor 0.1R-1/4W        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1/4W        </t>
+  </si>
+  <si>
+    <t>14-76</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SMD Resistor 0.22R-1/4W        </t>
+  </si>
+  <si>
+    <t>14-77</t>
+  </si>
+  <si>
+    <t>SMD Resistor  0.33R-1/4W</t>
+  </si>
+  <si>
+    <t>1/4W</t>
+  </si>
+  <si>
+    <t>14-78</t>
+  </si>
+  <si>
+    <t>SMD Resistor  10R-1/4W</t>
+  </si>
+  <si>
+    <t>14-79</t>
+  </si>
+  <si>
+    <t>SMD Resistor   22R-1/4W</t>
+  </si>
+  <si>
+    <t>14-80</t>
+  </si>
+  <si>
+    <t>SMD Resistor  33R-1/4W</t>
+  </si>
+  <si>
+    <t>14-81</t>
+  </si>
+  <si>
+    <t>SMD Resistor   39R-1/4W</t>
+  </si>
+  <si>
+    <t>14-82</t>
+  </si>
+  <si>
+    <t>SMD Resistor   47R-1/4W</t>
+  </si>
+  <si>
+    <t>14-83</t>
+  </si>
+  <si>
+    <t>SMD Resistor   56R-1/4W</t>
+  </si>
+  <si>
+    <t>14-84</t>
+  </si>
+  <si>
+    <t>SMD Resistor   68R-1/4W</t>
+  </si>
+  <si>
+    <t>14-85</t>
+  </si>
+  <si>
+    <t>SMD Resistor   82R-1/4W</t>
+  </si>
+  <si>
+    <t>14-86</t>
+  </si>
+  <si>
+    <t>SMD Resistor   100R-1/4W</t>
+  </si>
+  <si>
+    <t>14-87</t>
+  </si>
+  <si>
+    <t>SMD Resistor   120R-1/4W</t>
+  </si>
+  <si>
+    <t>14-88</t>
+  </si>
+  <si>
+    <t>SMD Resistor   150R-1/4W</t>
+  </si>
+  <si>
+    <t>14-89</t>
+  </si>
+  <si>
+    <t>SMD Resistor   200R-1/4W</t>
+  </si>
+  <si>
+    <t>14-90</t>
+  </si>
+  <si>
+    <t>SMD Resistor   220R-1/4W</t>
+  </si>
+  <si>
+    <t>14-91</t>
+  </si>
+  <si>
+    <t>SMD Resistor   270R-1/4W</t>
+  </si>
+  <si>
+    <t>14-92</t>
+  </si>
+  <si>
+    <t>SMD Resistor   330R-1/4W</t>
+  </si>
+  <si>
+    <t>14-93</t>
+  </si>
+  <si>
+    <t>SMD Resistor   390R-1/4W</t>
+  </si>
+  <si>
+    <t>14-94</t>
+  </si>
+  <si>
+    <t>SMD Resistor   470R-1/4W</t>
+  </si>
+  <si>
+    <t>14-95</t>
+  </si>
+  <si>
+    <t>SMD Resistor  560R-1/4W</t>
+  </si>
+  <si>
+    <t>14-96</t>
+  </si>
+  <si>
+    <t>SMD Resistor  680R-1/4W</t>
+  </si>
+  <si>
+    <t>14-97</t>
+  </si>
+  <si>
+    <t>SMD Resistor  820R-1/4W</t>
+  </si>
+  <si>
+    <t>14-98</t>
+  </si>
+  <si>
+    <t>SMD Resistor   1K-1/4W</t>
+  </si>
+  <si>
+    <t>14-99</t>
+  </si>
+  <si>
+    <t>SMD Resistor   1K2-1/4W</t>
+  </si>
+  <si>
+    <t>14-100</t>
+  </si>
+  <si>
+    <t>SMD Resistor   1K5-1/4W</t>
+  </si>
+  <si>
+    <t>14-101</t>
+  </si>
+  <si>
+    <t>SMD Resistor   2K-1/4W</t>
+  </si>
+  <si>
+    <t>14-102</t>
+  </si>
+  <si>
+    <t>SMD Resistor   2K2-1/4W</t>
+  </si>
+  <si>
+    <t>14-103</t>
+  </si>
+  <si>
+    <t>SMD Resistor   2K7-1/4W</t>
+  </si>
+  <si>
+    <t>14-104</t>
+  </si>
+  <si>
+    <t>SMD Resistor   3K3-1/4W</t>
+  </si>
+  <si>
+    <t>14-105</t>
+  </si>
+  <si>
+    <t>SMD Resistor   3K9-1/4W</t>
+  </si>
+  <si>
+    <t>14-106</t>
+  </si>
+  <si>
+    <t>SMD Resistor   4K7-1/4W</t>
+  </si>
+  <si>
+    <t>14-107</t>
+  </si>
+  <si>
+    <t>SMD Resistor   5K6-1/4W</t>
+  </si>
+  <si>
+    <t>14-108</t>
+  </si>
+  <si>
+    <t>SMD Resistor   6K8-1/4W</t>
+  </si>
+  <si>
+    <t>14-109</t>
+  </si>
+  <si>
+    <t>SMD Resistor   8K2-1/4W</t>
+  </si>
+  <si>
+    <t>14-110</t>
+  </si>
+  <si>
+    <t>SMD Resistor   10K-1/4W</t>
+  </si>
+  <si>
+    <t>14-111</t>
+  </si>
+  <si>
+    <t>SMD Resistor 15K-1/4W</t>
+  </si>
+  <si>
+    <t>14-112</t>
+  </si>
+  <si>
+    <t>SMD Resistor   18K-1/4W</t>
+  </si>
+  <si>
+    <t>14-113</t>
+  </si>
+  <si>
+    <t>SMD Resistor   22K-1/4W</t>
+  </si>
+  <si>
+    <t>14-114</t>
+  </si>
+  <si>
+    <t>SMD Resistor   33K-1/4W</t>
+  </si>
+  <si>
+    <t>14-115</t>
+  </si>
+  <si>
+    <t>SMD Resistor  39K-1/4W</t>
+  </si>
+  <si>
+    <t>14-116</t>
+  </si>
+  <si>
+    <t>SMD Resistor   47K-1/4W</t>
+  </si>
+  <si>
+    <t>14-117</t>
+  </si>
+  <si>
+    <t>SMD Resistor   56K-1/4W</t>
+  </si>
+  <si>
+    <t>14-118</t>
+  </si>
+  <si>
+    <t>SMD Resistor   68K-1/4W</t>
+  </si>
+  <si>
+    <t>14-119</t>
+  </si>
+  <si>
+    <t>SMD Resistor   82K-1/4W</t>
+  </si>
+  <si>
+    <t>14-120</t>
+  </si>
+  <si>
+    <t>SMD Resistor   100K-1/4W</t>
+  </si>
+  <si>
+    <t>14-121</t>
+  </si>
+  <si>
+    <t>SMD Resistor   120K-1/4W</t>
+  </si>
+  <si>
+    <t>14-122</t>
+  </si>
+  <si>
+    <t>SMD Resistor   150K-1/4W</t>
+  </si>
+  <si>
+    <t>14-123</t>
+  </si>
+  <si>
+    <t>SMD Resistor   200K-1/4W</t>
+  </si>
+  <si>
+    <t>14-124</t>
+  </si>
+  <si>
+    <t>SMD Resistor   330K-1/4W</t>
+  </si>
+  <si>
+    <t>14-125</t>
+  </si>
+  <si>
+    <t>SMD Resistor   470K-1/4W</t>
+  </si>
+  <si>
+    <t>14-126</t>
+  </si>
+  <si>
+    <t>SMD Resistor   560K-1/4W</t>
+  </si>
+  <si>
+    <t>14-127</t>
+  </si>
+  <si>
+    <t>SMD Resistor   680K-1/4W</t>
+  </si>
+  <si>
+    <t>14-128</t>
+  </si>
+  <si>
+    <t>SMD Resistor   820K-1/4W</t>
+  </si>
+  <si>
+    <t>14-129</t>
+  </si>
+  <si>
+    <t>SMD Resistor   1M-1/4W</t>
+  </si>
+  <si>
+    <t>14-130</t>
+  </si>
+  <si>
+    <t>IC-LM358SMD</t>
+  </si>
+  <si>
+    <t>LM358SMD</t>
+  </si>
+  <si>
+    <t>55cm x 5mm x 3 m as sample</t>
+  </si>
+  <si>
+    <t>18 x12 as sample</t>
+  </si>
+  <si>
+    <t>40 x 40mm thickness 3mm</t>
+  </si>
+  <si>
+    <t>ZR 390L</t>
+  </si>
+  <si>
+    <t>ZR 300L</t>
+  </si>
+  <si>
+    <t>50 x50 x 600mm</t>
+  </si>
+  <si>
+    <t>as Picture</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5W0.47+5% </t>
+  </si>
+  <si>
+    <t>6,8 3W</t>
+  </si>
+  <si>
+    <t>KBPC 3510</t>
+  </si>
+  <si>
+    <t>set as sample</t>
+  </si>
+  <si>
+    <t>100mm x 300M thickness 1.2mm</t>
+  </si>
+  <si>
+    <t>10k as sample</t>
+  </si>
+  <si>
+    <t>P004</t>
+  </si>
+  <si>
+    <t>SUNON SF23080A P/N2083HSL 220V-240AC</t>
+  </si>
+  <si>
+    <t>SUNON DP200A P/N2123HSL</t>
+  </si>
+  <si>
+    <t>(25-142)</t>
+  </si>
+  <si>
+    <t>(25-149)</t>
+  </si>
+  <si>
+    <t>(25-150)</t>
+  </si>
+  <si>
+    <t>(25-151)</t>
+  </si>
+  <si>
+    <t>(25-152)</t>
+  </si>
+  <si>
+    <t>(25-153)</t>
+  </si>
+  <si>
+    <t>(25-154)</t>
+  </si>
+  <si>
+    <t>(43-21)</t>
+  </si>
+  <si>
+    <t>(43-23)</t>
+  </si>
+  <si>
+    <t>(43-24)</t>
+  </si>
+  <si>
+    <t>(43-25)</t>
+  </si>
+  <si>
+    <t>(43-27)</t>
+  </si>
+  <si>
+    <t>(43-29)</t>
+  </si>
+  <si>
+    <t>(43-30)</t>
+  </si>
+  <si>
+    <t>(43-31)</t>
+  </si>
+  <si>
+    <t>(43-32)</t>
+  </si>
+  <si>
+    <t>(43-33)</t>
+  </si>
+  <si>
+    <t>(43-34)</t>
+  </si>
+  <si>
+    <t>Belt -55cm x 5mm x 3 m as sample</t>
+  </si>
+  <si>
+    <t>E- Ring-18 x12 as sample</t>
+  </si>
+  <si>
+    <t>Aluminum plate-40 x 40mm thickness 3mm</t>
+  </si>
+  <si>
+    <t>optibelt  -ZR 390L</t>
+  </si>
+  <si>
+    <t>optibelt-ZR 300L</t>
+  </si>
+  <si>
+    <t>Main drive wheel 16L-2200120101300</t>
+  </si>
+  <si>
+    <t>Square iron bar-50 x50 x 600mm</t>
+  </si>
+  <si>
+    <t>Fi350-Cutting knife -as Picture</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Resistance-5W0.47+5% </t>
+  </si>
+  <si>
+    <t>Resistance -6,8 3W</t>
+  </si>
+  <si>
+    <t>Diodes bridge -KBPC 3510</t>
+  </si>
+  <si>
+    <t>Refresh the printed circuit -87139</t>
+  </si>
+  <si>
+    <t>Sprinkle Plug-set as sample</t>
+  </si>
+  <si>
+    <t>Rubber roll-100mm x 300M thickness 1.2mm</t>
+  </si>
+  <si>
+    <t>Speed regulation switch-10k as sample</t>
+  </si>
+  <si>
+    <t>Bearing KOYO-P004</t>
+  </si>
+  <si>
+    <t>Cooling fan for circuit board-SUNON SF23080A P/N2083HSL 220V-240AC</t>
+  </si>
+  <si>
+    <t>Cooling fan for circuit board-SUNON DP200A P/N2123HSL</t>
+  </si>
+  <si>
+    <t>SKU2</t>
+  </si>
+  <si>
+    <t>25-142</t>
+  </si>
+  <si>
+    <t>25-149</t>
+  </si>
+  <si>
+    <t>25-150</t>
+  </si>
+  <si>
+    <t>25-151</t>
+  </si>
+  <si>
+    <t>25-152</t>
+  </si>
+  <si>
+    <t>25-153</t>
+  </si>
+  <si>
+    <t>25-154</t>
+  </si>
+  <si>
+    <t>43-21</t>
+  </si>
+  <si>
+    <t>43-23</t>
+  </si>
+  <si>
+    <t>43-24</t>
+  </si>
+  <si>
+    <t>43-25</t>
+  </si>
+  <si>
+    <t>43-27</t>
+  </si>
+  <si>
+    <t>43-29</t>
+  </si>
+  <si>
+    <t>43-30</t>
+  </si>
+  <si>
+    <t>43-31</t>
+  </si>
+  <si>
+    <t>43-32</t>
+  </si>
+  <si>
+    <t>43-33</t>
+  </si>
+  <si>
+    <t>43-34</t>
+  </si>
+  <si>
+    <t>Belt -55Cm X 5Mm X 3 M As Sample</t>
+  </si>
+  <si>
+    <t>E- Ring-18 X12 As Sample</t>
+  </si>
+  <si>
+    <t>Aluminum Plate-40 X 40Mm Thickness 3Mm</t>
+  </si>
+  <si>
+    <t>Optibelt  -Zr 390L</t>
+  </si>
+  <si>
+    <t>Optibelt-Zr 300L</t>
+  </si>
+  <si>
+    <t>Main Drive Wheel 16L-2200120101300</t>
+  </si>
+  <si>
+    <t>Square Iron Bar-50 X50 X 600Mm</t>
+  </si>
+  <si>
+    <t>Fi350-Cutting Knife -As Picture</t>
+  </si>
+  <si>
+    <t>Diodes Bridge -Kbpc 3510</t>
+  </si>
+  <si>
+    <t>Refresh The Printed Circuit -87139</t>
+  </si>
+  <si>
+    <t>Sprinkle Plug-Set As Sample</t>
+  </si>
+  <si>
+    <t>Rubber Roll-100Mm X 300M Thickness 1.2Mm</t>
+  </si>
+  <si>
+    <t>Speed Regulation Switch-10K As Sample</t>
+  </si>
+  <si>
+    <t>Bearing Koyo-P004</t>
+  </si>
+  <si>
+    <t>Cooling Fan For Circuit Board-Sunon Sf23080A P/N2083Hsl 220V-240Ac</t>
+  </si>
+  <si>
+    <t>Cooling Fan For Circuit Board-Sunon Dp200A P/N2123Hsl</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -781,6 +1337,11 @@
     <font>
       <sz val="8"/>
       <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -803,16 +1364,44 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="8">
+  <dxfs count="17">
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
     <dxf>
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -837,6 +1426,9 @@
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9"/>
   <extLst>
@@ -851,12 +1443,66 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{64BF2867-61D6-4A40-A223-E1666DCBE16E}" name="Table134" displayName="Table134" ref="A1:O50" totalsRowShown="0" headerRowDxfId="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{C0A863AF-1F4D-4548-8C04-1F615C0B52D8}" name="Table13456" displayName="Table13456" ref="A1:O19" totalsRowShown="0" headerRowDxfId="3">
+  <autoFilter ref="A1:O19" xr:uid="{989544BB-A3D6-49C4-9C9A-AA9344CE2D3D}"/>
+  <tableColumns count="15">
+    <tableColumn id="3" xr3:uid="{7DA2CBF2-FF82-4DA0-96FC-FD20FF8582C5}" name="SKU"/>
+    <tableColumn id="16" xr3:uid="{5044C76D-0066-4BB1-8ECE-2BE680D6DAC0}" name="SKU1" dataDxfId="2"/>
+    <tableColumn id="5" xr3:uid="{9670F583-6D36-4B51-ADD0-46810F989F60}" name="ItemName"/>
+    <tableColumn id="18" xr3:uid="{5A1C1E38-CD12-4982-955E-37FABFB40E28}" name="ItemName1" dataDxfId="1"/>
+    <tableColumn id="7" xr3:uid="{E40C4177-3E87-4A4D-8CD1-EA4B8C1D35A9}" name="Mfg Code" dataDxfId="0"/>
+    <tableColumn id="8" xr3:uid="{164F0D6A-53A9-4127-9B79-A5ED1FB90C76}" name="Mfg Model"/>
+    <tableColumn id="9" xr3:uid="{BB018FB9-0E87-4DC6-834E-1610A012F4E7}" name="Mfg S/N"/>
+    <tableColumn id="10" xr3:uid="{D7EB3287-2AD0-4713-89DA-950FA98F047A}" name="Type"/>
+    <tableColumn id="11" xr3:uid="{07886714-A7C0-4757-BA42-3A4804386C97}" name="Group"/>
+    <tableColumn id="12" xr3:uid="{F7E50B40-BA82-4210-BCF6-88FC70A8886F}" name="HS Code"/>
+    <tableColumn id="13" xr3:uid="{98B2E023-2F63-4D65-8A53-69B9135141FD}" name="Std.Uom"/>
+    <tableColumn id="14" xr3:uid="{C4AE3A7E-0397-4DC0-B0B8-BBC1D71E3BE0}" name="Stock.Uom"/>
+    <tableColumn id="21" xr3:uid="{6A520BBA-F05F-451B-A5B9-DDCEA2B28B58}" name="Stock CF"/>
+    <tableColumn id="15" xr3:uid="{9F994DDF-F7E7-45B6-887F-B035525FCC5D}" name="Purchase.Uom"/>
+    <tableColumn id="22" xr3:uid="{6B808E62-C962-4323-B6F0-C21D37166E17}" name="Purchase CF"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{E64800C3-9D50-484E-8B3F-2868826E4664}" name="Table1345" displayName="Table1345" ref="A1:P19" totalsRowShown="0" headerRowDxfId="8">
+  <autoFilter ref="A1:P19" xr:uid="{989544BB-A3D6-49C4-9C9A-AA9344CE2D3D}"/>
+  <tableColumns count="16">
+    <tableColumn id="3" xr3:uid="{0D4E277A-C3E6-4464-9CB6-57F65CDCFE2B}" name="SKU"/>
+    <tableColumn id="16" xr3:uid="{E6F61839-F038-438A-A02F-FB858703F0D1}" name="SKU1" dataDxfId="5">
+      <calculatedColumnFormula>SUBSTITUTE(Table1345[[#This Row],[SKU]],"(","")</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="1" xr3:uid="{5169CE0E-B6EE-4DA9-AD7A-73DDC7AB0C6A}" name="SKU2" dataDxfId="4">
+      <calculatedColumnFormula>SUBSTITUTE(Table1345[[#This Row],[SKU1]],")","")</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="5" xr3:uid="{96E00DC2-7938-460C-919C-A9C1FC0366AF}" name="ItemName"/>
+    <tableColumn id="18" xr3:uid="{B9A1B0F8-D19D-4A97-981A-A0B76DEC036F}" name="ItemName1" dataDxfId="7"/>
+    <tableColumn id="7" xr3:uid="{A577343E-82F1-4717-9BA3-47688C2C112D}" name="Mfg Code" dataDxfId="6"/>
+    <tableColumn id="8" xr3:uid="{C729B39C-0891-423C-955F-8C0E08CA154A}" name="Mfg Model"/>
+    <tableColumn id="9" xr3:uid="{EA6EBC74-13B8-4E1D-B8EE-940B88D175AF}" name="Mfg S/N"/>
+    <tableColumn id="10" xr3:uid="{31DB2521-77C8-4DCD-8595-7D307CFDA96A}" name="Type"/>
+    <tableColumn id="11" xr3:uid="{59B64350-08E4-4462-87BC-CEF24496B19D}" name="Group"/>
+    <tableColumn id="12" xr3:uid="{5A20C57E-0DCD-48AF-BECC-3986AD460768}" name="HS Code"/>
+    <tableColumn id="13" xr3:uid="{C9260235-FB8C-4DFF-A927-BD7E28DE8887}" name="Std.Uom"/>
+    <tableColumn id="14" xr3:uid="{4ED1FB91-1C1C-4646-9FC3-B4AA372AB9C5}" name="Stock.Uom"/>
+    <tableColumn id="21" xr3:uid="{D6B7465A-23D3-4134-9990-81CAE38748D0}" name="Stock CF"/>
+    <tableColumn id="15" xr3:uid="{77903B8D-B197-4447-84FE-13392CD3E35C}" name="Purchase.Uom"/>
+    <tableColumn id="22" xr3:uid="{57AE8005-8643-41A3-9423-599F19D11997}" name="Purchase CF"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{64BF2867-61D6-4A40-A223-E1666DCBE16E}" name="Table134" displayName="Table134" ref="A1:O67" totalsRowShown="0" headerRowDxfId="16">
+  <autoFilter ref="A1:O67" xr:uid="{989544BB-A3D6-49C4-9C9A-AA9344CE2D3D}"/>
   <tableColumns count="15">
     <tableColumn id="3" xr3:uid="{98A723FB-B6D6-4CA9-B830-46D06CA83E50}" name="SKU"/>
     <tableColumn id="16" xr3:uid="{D908201F-7F52-4EE2-BB50-EC4F5D942D16}" name="SKU1"/>
     <tableColumn id="5" xr3:uid="{5640FECF-A8D7-46BB-91F5-E72178177173}" name="ItemName"/>
-    <tableColumn id="18" xr3:uid="{FB9204F1-33A0-4BFB-8FB3-A90A737A1696}" name="ItemName1" dataDxfId="1"/>
+    <tableColumn id="18" xr3:uid="{FB9204F1-33A0-4BFB-8FB3-A90A737A1696}" name="ItemName1" dataDxfId="15"/>
     <tableColumn id="7" xr3:uid="{3210E969-D321-458C-8AB3-EF5A7466E19F}" name="Mfg Code"/>
     <tableColumn id="8" xr3:uid="{DE091E02-DD7D-43F9-9F96-1231B66D170D}" name="Mfg Model"/>
     <tableColumn id="9" xr3:uid="{7A3669CD-3BC8-4B10-A19F-650BD00A895F}" name="Mfg S/N"/>
@@ -873,7 +1519,7 @@
 </table>
 </file>
 
-<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{001A5E5D-3219-4FBD-B3BB-A5D27B6263CB}" name="Table13" displayName="Table13" ref="A1:O52" totalsRowShown="0">
   <tableColumns count="15">
     <tableColumn id="1" xr3:uid="{4BEF26EC-FECA-4184-A9DF-25ED3B6C07C2}" name="#"/>
@@ -882,8 +1528,8 @@
     <tableColumn id="5" xr3:uid="{41640FB5-8D8B-46FD-938F-7C216B16E712}" name="ItemName">
       <calculatedColumnFormula>Table13[[#This Row],[Column3]]&amp;" " &amp;Table13[[#This Row],[Mfg Code]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="18" xr3:uid="{4A913310-379E-4B92-A14B-D70020199BF7}" name="Column2" dataDxfId="3"/>
-    <tableColumn id="19" xr3:uid="{0DC02663-C0FB-444A-A667-05D4C30E0A70}" name="Column3" dataDxfId="2"/>
+    <tableColumn id="18" xr3:uid="{4A913310-379E-4B92-A14B-D70020199BF7}" name="Column2" dataDxfId="14"/>
+    <tableColumn id="19" xr3:uid="{0DC02663-C0FB-444A-A667-05D4C30E0A70}" name="Column3" dataDxfId="13"/>
     <tableColumn id="7" xr3:uid="{53F2E197-3EFA-4622-950A-D0BC070F1A71}" name="Mfg Code"/>
     <tableColumn id="8" xr3:uid="{C978F95E-BF9E-4AA7-9094-1F1157CAE80D}" name="Mfg Model"/>
     <tableColumn id="9" xr3:uid="{FF1DC298-2A71-467A-9249-74F879D8C519}" name="Mfg S/N"/>
@@ -898,23 +1544,23 @@
 </table>
 </file>
 
-<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{ED4433B3-592F-4689-9D59-26E19EA84E8E}" name="Table1" displayName="Table1" ref="A1:R52" totalsRowShown="0">
   <tableColumns count="18">
     <tableColumn id="1" xr3:uid="{73CA9D9B-099A-484B-BA25-1C0830E7864B}" name="#"/>
     <tableColumn id="3" xr3:uid="{485128C6-C0BD-4B75-A802-480589BEAC80}" name="SKU"/>
     <tableColumn id="16" xr3:uid="{FBE9870E-7997-4382-BF33-426A59F71E9E}" name="SKU1"/>
     <tableColumn id="5" xr3:uid="{A15558C6-E6E0-46D8-A6F1-E6290189B13E}" name="ItemName"/>
-    <tableColumn id="17" xr3:uid="{E6EAD295-9C06-4593-B4B6-20ECEE41934E}" name="Column1" dataDxfId="7">
+    <tableColumn id="17" xr3:uid="{E6EAD295-9C06-4593-B4B6-20ECEE41934E}" name="Column1" dataDxfId="12">
       <calculatedColumnFormula>FIND("/",Table1[[#This Row],[ItemName]],1)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="18" xr3:uid="{798FCDE6-3C4E-4859-AEED-BCAC37AFFD99}" name="Column2" dataDxfId="6">
+    <tableColumn id="18" xr3:uid="{798FCDE6-3C4E-4859-AEED-BCAC37AFFD99}" name="Column2" dataDxfId="11">
       <calculatedColumnFormula>LEFT(Table1[[#This Row],[ItemName]],Table1[[#This Row],[Column1]]-1)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="20" xr3:uid="{CA47355B-5129-48E7-AD0D-8BA9D8A67A8D}" name="Column22" dataDxfId="5">
+    <tableColumn id="20" xr3:uid="{CA47355B-5129-48E7-AD0D-8BA9D8A67A8D}" name="Column22" dataDxfId="10">
       <calculatedColumnFormula>LEN(Table1[[#This Row],[ItemName]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="19" xr3:uid="{CEDBCF94-691A-4ECE-B8EC-2171AF9F5EFE}" name="Column3" dataDxfId="4">
+    <tableColumn id="19" xr3:uid="{CEDBCF94-691A-4ECE-B8EC-2171AF9F5EFE}" name="Column3" dataDxfId="9">
       <calculatedColumnFormula>MID(Table1[[#This Row],[ItemName]],Table1[[#This Row],[Column1]]+1,Table1[[#This Row],[Column22]]-Table1[[#This Row],[Column1]])</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="6" xr3:uid="{C7C1B0F1-50D4-48CB-AD1F-5764E37DFA3A}" name="ItemName1"/>
@@ -1218,18 +1864,1480 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5FEBC371-E2D8-4342-8539-7DF09C777E3F}">
-  <dimension ref="A1:O50"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F5AEA2B8-727D-4E54-B1E7-98D587A67F1B}">
+  <dimension ref="A1:O19"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+      <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" outlineLevelCol="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="59.85546875" customWidth="1"/>
+    <col min="4" max="4" width="65.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="27.28515625" customWidth="1"/>
+    <col min="6" max="6" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.42578125" customWidth="1"/>
+    <col min="9" max="9" width="9.140625" customWidth="1" outlineLevel="1"/>
+    <col min="10" max="10" width="10.42578125" customWidth="1" outlineLevel="1"/>
+    <col min="11" max="11" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="18.5703125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="16.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" s="1" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>393</v>
+      </c>
+      <c r="C2" t="s">
+        <v>411</v>
+      </c>
+      <c r="D2" t="s">
+        <v>374</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>340</v>
+      </c>
+      <c r="F2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H2">
+        <v>1</v>
+      </c>
+      <c r="I2">
+        <v>9</v>
+      </c>
+      <c r="K2">
+        <v>1</v>
+      </c>
+      <c r="L2">
+        <v>1</v>
+      </c>
+      <c r="M2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>394</v>
+      </c>
+      <c r="C3" t="s">
+        <v>412</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>375</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>341</v>
+      </c>
+      <c r="F3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H3">
+        <v>1</v>
+      </c>
+      <c r="I3">
+        <v>9</v>
+      </c>
+      <c r="K3">
+        <v>1</v>
+      </c>
+      <c r="L3">
+        <v>1</v>
+      </c>
+      <c r="M3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>395</v>
+      </c>
+      <c r="C4" t="s">
+        <v>413</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>376</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>342</v>
+      </c>
+      <c r="F4" t="s">
+        <v>10</v>
+      </c>
+      <c r="H4">
+        <v>1</v>
+      </c>
+      <c r="I4">
+        <v>9</v>
+      </c>
+      <c r="K4">
+        <v>1</v>
+      </c>
+      <c r="L4">
+        <v>1</v>
+      </c>
+      <c r="M4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>396</v>
+      </c>
+      <c r="C5" t="s">
+        <v>414</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>377</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>343</v>
+      </c>
+      <c r="F5" t="s">
+        <v>10</v>
+      </c>
+      <c r="H5">
+        <v>1</v>
+      </c>
+      <c r="I5">
+        <v>9</v>
+      </c>
+      <c r="K5">
+        <v>1</v>
+      </c>
+      <c r="L5">
+        <v>1</v>
+      </c>
+      <c r="M5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>397</v>
+      </c>
+      <c r="C6" t="s">
+        <v>415</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>378</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>344</v>
+      </c>
+      <c r="F6" t="s">
+        <v>10</v>
+      </c>
+      <c r="H6">
+        <v>1</v>
+      </c>
+      <c r="I6">
+        <v>9</v>
+      </c>
+      <c r="K6">
+        <v>1</v>
+      </c>
+      <c r="L6">
+        <v>1</v>
+      </c>
+      <c r="M6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>398</v>
+      </c>
+      <c r="C7" t="s">
+        <v>416</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>379</v>
+      </c>
+      <c r="E7" s="3">
+        <v>2200120101300</v>
+      </c>
+      <c r="F7" t="s">
+        <v>10</v>
+      </c>
+      <c r="H7">
+        <v>1</v>
+      </c>
+      <c r="I7">
+        <v>9</v>
+      </c>
+      <c r="K7">
+        <v>1</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>399</v>
+      </c>
+      <c r="C8" t="s">
+        <v>417</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>380</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>345</v>
+      </c>
+      <c r="F8" t="s">
+        <v>10</v>
+      </c>
+      <c r="H8">
+        <v>1</v>
+      </c>
+      <c r="I8">
+        <v>9</v>
+      </c>
+      <c r="K8">
+        <v>1</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>400</v>
+      </c>
+      <c r="C9" t="s">
+        <v>418</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>381</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>346</v>
+      </c>
+      <c r="F9" t="s">
+        <v>10</v>
+      </c>
+      <c r="H9">
+        <v>1</v>
+      </c>
+      <c r="I9">
+        <v>16</v>
+      </c>
+      <c r="K9">
+        <v>1</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>401</v>
+      </c>
+      <c r="C10" t="s">
+        <v>382</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>382</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>347</v>
+      </c>
+      <c r="F10" t="s">
+        <v>10</v>
+      </c>
+      <c r="H10">
+        <v>1</v>
+      </c>
+      <c r="I10">
+        <v>16</v>
+      </c>
+      <c r="K10">
+        <v>1</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>402</v>
+      </c>
+      <c r="C11" t="s">
+        <v>383</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>383</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>348</v>
+      </c>
+      <c r="F11" t="s">
+        <v>10</v>
+      </c>
+      <c r="H11">
+        <v>1</v>
+      </c>
+      <c r="I11">
+        <v>16</v>
+      </c>
+      <c r="K11">
+        <v>1</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>403</v>
+      </c>
+      <c r="C12" t="s">
+        <v>419</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>384</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>349</v>
+      </c>
+      <c r="F12" t="s">
+        <v>10</v>
+      </c>
+      <c r="H12">
+        <v>1</v>
+      </c>
+      <c r="I12">
+        <v>16</v>
+      </c>
+      <c r="K12">
+        <v>1</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>404</v>
+      </c>
+      <c r="C13" t="s">
+        <v>420</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>385</v>
+      </c>
+      <c r="E13" s="3">
+        <v>87139</v>
+      </c>
+      <c r="F13" t="s">
+        <v>10</v>
+      </c>
+      <c r="H13">
+        <v>1</v>
+      </c>
+      <c r="I13">
+        <v>16</v>
+      </c>
+      <c r="K13">
+        <v>1</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>405</v>
+      </c>
+      <c r="C14" t="s">
+        <v>421</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>386</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>350</v>
+      </c>
+      <c r="F14" t="s">
+        <v>10</v>
+      </c>
+      <c r="H14">
+        <v>1</v>
+      </c>
+      <c r="I14">
+        <v>16</v>
+      </c>
+      <c r="K14">
+        <v>1</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>406</v>
+      </c>
+      <c r="C15" t="s">
+        <v>422</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>387</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>351</v>
+      </c>
+      <c r="F15" t="s">
+        <v>10</v>
+      </c>
+      <c r="H15">
+        <v>1</v>
+      </c>
+      <c r="I15">
+        <v>16</v>
+      </c>
+      <c r="K15">
+        <v>1</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>407</v>
+      </c>
+      <c r="C16" t="s">
+        <v>423</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>388</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>352</v>
+      </c>
+      <c r="F16" t="s">
+        <v>10</v>
+      </c>
+      <c r="H16">
+        <v>1</v>
+      </c>
+      <c r="I16">
+        <v>16</v>
+      </c>
+      <c r="K16">
+        <v>1</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>408</v>
+      </c>
+      <c r="C17" t="s">
+        <v>424</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>389</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>353</v>
+      </c>
+      <c r="F17" t="s">
+        <v>10</v>
+      </c>
+      <c r="H17">
+        <v>1</v>
+      </c>
+      <c r="I17">
+        <v>16</v>
+      </c>
+      <c r="K17">
+        <v>1</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>409</v>
+      </c>
+      <c r="C18" t="s">
+        <v>425</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>390</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>354</v>
+      </c>
+      <c r="F18" t="s">
+        <v>10</v>
+      </c>
+      <c r="H18">
+        <v>1</v>
+      </c>
+      <c r="I18">
+        <v>16</v>
+      </c>
+      <c r="K18">
+        <v>1</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>410</v>
+      </c>
+      <c r="C19" t="s">
+        <v>426</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>391</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>355</v>
+      </c>
+      <c r="F19" t="s">
+        <v>10</v>
+      </c>
+      <c r="H19">
+        <v>1</v>
+      </c>
+      <c r="I19">
+        <v>16</v>
+      </c>
+      <c r="K19">
+        <v>1</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4A7DCB9-9FE0-4033-B4A2-DC8AD941DE93}">
+  <dimension ref="A1:P19"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2:C19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" outlineLevelCol="1" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="14.5703125" customWidth="1"/>
+    <col min="4" max="4" width="30.5703125" customWidth="1"/>
+    <col min="5" max="5" width="65.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="27.28515625" customWidth="1"/>
+    <col min="7" max="7" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.42578125" customWidth="1"/>
+    <col min="10" max="10" width="9.140625" customWidth="1" outlineLevel="1"/>
+    <col min="11" max="11" width="10.42578125" customWidth="1" outlineLevel="1"/>
+    <col min="12" max="12" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="18.5703125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="16.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:16" s="1" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>392</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>356</v>
+      </c>
+      <c r="B2" t="str">
+        <f>SUBSTITUTE(Table1345[[#This Row],[SKU]],"(","")</f>
+        <v>25-142)</v>
+      </c>
+      <c r="C2" t="str">
+        <f>SUBSTITUTE(Table1345[[#This Row],[SKU1]],")","")</f>
+        <v>25-142</v>
+      </c>
+      <c r="D2" t="s">
+        <v>374</v>
+      </c>
+      <c r="E2" t="s">
+        <v>374</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>340</v>
+      </c>
+      <c r="G2" t="s">
+        <v>10</v>
+      </c>
+      <c r="I2">
+        <v>1</v>
+      </c>
+      <c r="J2">
+        <v>9</v>
+      </c>
+      <c r="L2">
+        <v>1</v>
+      </c>
+      <c r="M2">
+        <v>1</v>
+      </c>
+      <c r="N2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>357</v>
+      </c>
+      <c r="B3" t="str">
+        <f>SUBSTITUTE(Table1345[[#This Row],[SKU]],"(","")</f>
+        <v>25-149)</v>
+      </c>
+      <c r="C3" t="str">
+        <f>SUBSTITUTE(Table1345[[#This Row],[SKU1]],")","")</f>
+        <v>25-149</v>
+      </c>
+      <c r="D3" t="s">
+        <v>375</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>375</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>341</v>
+      </c>
+      <c r="G3" t="s">
+        <v>10</v>
+      </c>
+      <c r="I3">
+        <v>1</v>
+      </c>
+      <c r="J3">
+        <v>9</v>
+      </c>
+      <c r="L3">
+        <v>1</v>
+      </c>
+      <c r="M3">
+        <v>1</v>
+      </c>
+      <c r="N3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>358</v>
+      </c>
+      <c r="B4" t="str">
+        <f>SUBSTITUTE(Table1345[[#This Row],[SKU]],"(","")</f>
+        <v>25-150)</v>
+      </c>
+      <c r="C4" t="str">
+        <f>SUBSTITUTE(Table1345[[#This Row],[SKU1]],")","")</f>
+        <v>25-150</v>
+      </c>
+      <c r="D4" t="s">
+        <v>376</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>376</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>342</v>
+      </c>
+      <c r="G4" t="s">
+        <v>10</v>
+      </c>
+      <c r="I4">
+        <v>1</v>
+      </c>
+      <c r="J4">
+        <v>9</v>
+      </c>
+      <c r="L4">
+        <v>1</v>
+      </c>
+      <c r="M4">
+        <v>1</v>
+      </c>
+      <c r="N4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>359</v>
+      </c>
+      <c r="B5" t="str">
+        <f>SUBSTITUTE(Table1345[[#This Row],[SKU]],"(","")</f>
+        <v>25-151)</v>
+      </c>
+      <c r="C5" t="str">
+        <f>SUBSTITUTE(Table1345[[#This Row],[SKU1]],")","")</f>
+        <v>25-151</v>
+      </c>
+      <c r="D5" t="s">
+        <v>377</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>377</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>343</v>
+      </c>
+      <c r="G5" t="s">
+        <v>10</v>
+      </c>
+      <c r="I5">
+        <v>1</v>
+      </c>
+      <c r="J5">
+        <v>9</v>
+      </c>
+      <c r="L5">
+        <v>1</v>
+      </c>
+      <c r="M5">
+        <v>1</v>
+      </c>
+      <c r="N5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>360</v>
+      </c>
+      <c r="B6" t="str">
+        <f>SUBSTITUTE(Table1345[[#This Row],[SKU]],"(","")</f>
+        <v>25-152)</v>
+      </c>
+      <c r="C6" t="str">
+        <f>SUBSTITUTE(Table1345[[#This Row],[SKU1]],")","")</f>
+        <v>25-152</v>
+      </c>
+      <c r="D6" t="s">
+        <v>378</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>378</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>344</v>
+      </c>
+      <c r="G6" t="s">
+        <v>10</v>
+      </c>
+      <c r="I6">
+        <v>1</v>
+      </c>
+      <c r="J6">
+        <v>9</v>
+      </c>
+      <c r="L6">
+        <v>1</v>
+      </c>
+      <c r="M6">
+        <v>1</v>
+      </c>
+      <c r="N6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>361</v>
+      </c>
+      <c r="B7" t="str">
+        <f>SUBSTITUTE(Table1345[[#This Row],[SKU]],"(","")</f>
+        <v>25-153)</v>
+      </c>
+      <c r="C7" t="str">
+        <f>SUBSTITUTE(Table1345[[#This Row],[SKU1]],")","")</f>
+        <v>25-153</v>
+      </c>
+      <c r="D7" t="s">
+        <v>379</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>379</v>
+      </c>
+      <c r="F7" s="3">
+        <v>2200120101300</v>
+      </c>
+      <c r="G7" t="s">
+        <v>10</v>
+      </c>
+      <c r="I7">
+        <v>1</v>
+      </c>
+      <c r="J7">
+        <v>9</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>1</v>
+      </c>
+      <c r="N7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>362</v>
+      </c>
+      <c r="B8" t="str">
+        <f>SUBSTITUTE(Table1345[[#This Row],[SKU]],"(","")</f>
+        <v>25-154)</v>
+      </c>
+      <c r="C8" t="str">
+        <f>SUBSTITUTE(Table1345[[#This Row],[SKU1]],")","")</f>
+        <v>25-154</v>
+      </c>
+      <c r="D8" t="s">
+        <v>380</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>380</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>345</v>
+      </c>
+      <c r="G8" t="s">
+        <v>10</v>
+      </c>
+      <c r="I8">
+        <v>1</v>
+      </c>
+      <c r="J8">
+        <v>9</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <v>1</v>
+      </c>
+      <c r="N8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>363</v>
+      </c>
+      <c r="B9" t="str">
+        <f>SUBSTITUTE(Table1345[[#This Row],[SKU]],"(","")</f>
+        <v>43-21)</v>
+      </c>
+      <c r="C9" t="str">
+        <f>SUBSTITUTE(Table1345[[#This Row],[SKU1]],")","")</f>
+        <v>43-21</v>
+      </c>
+      <c r="D9" t="s">
+        <v>381</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>381</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>346</v>
+      </c>
+      <c r="G9" t="s">
+        <v>10</v>
+      </c>
+      <c r="I9">
+        <v>1</v>
+      </c>
+      <c r="J9">
+        <v>16</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>1</v>
+      </c>
+      <c r="N9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>364</v>
+      </c>
+      <c r="B10" t="str">
+        <f>SUBSTITUTE(Table1345[[#This Row],[SKU]],"(","")</f>
+        <v>43-23)</v>
+      </c>
+      <c r="C10" t="str">
+        <f>SUBSTITUTE(Table1345[[#This Row],[SKU1]],")","")</f>
+        <v>43-23</v>
+      </c>
+      <c r="D10" t="s">
+        <v>382</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>382</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>347</v>
+      </c>
+      <c r="G10" t="s">
+        <v>10</v>
+      </c>
+      <c r="I10">
+        <v>1</v>
+      </c>
+      <c r="J10">
+        <v>16</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>1</v>
+      </c>
+      <c r="N10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>365</v>
+      </c>
+      <c r="B11" t="str">
+        <f>SUBSTITUTE(Table1345[[#This Row],[SKU]],"(","")</f>
+        <v>43-24)</v>
+      </c>
+      <c r="C11" t="str">
+        <f>SUBSTITUTE(Table1345[[#This Row],[SKU1]],")","")</f>
+        <v>43-24</v>
+      </c>
+      <c r="D11" t="s">
+        <v>383</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>383</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>348</v>
+      </c>
+      <c r="G11" t="s">
+        <v>10</v>
+      </c>
+      <c r="I11">
+        <v>1</v>
+      </c>
+      <c r="J11">
+        <v>16</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>1</v>
+      </c>
+      <c r="N11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>366</v>
+      </c>
+      <c r="B12" t="str">
+        <f>SUBSTITUTE(Table1345[[#This Row],[SKU]],"(","")</f>
+        <v>43-25)</v>
+      </c>
+      <c r="C12" t="str">
+        <f>SUBSTITUTE(Table1345[[#This Row],[SKU1]],")","")</f>
+        <v>43-25</v>
+      </c>
+      <c r="D12" t="s">
+        <v>384</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>384</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>349</v>
+      </c>
+      <c r="G12" t="s">
+        <v>10</v>
+      </c>
+      <c r="I12">
+        <v>1</v>
+      </c>
+      <c r="J12">
+        <v>16</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>1</v>
+      </c>
+      <c r="N12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>367</v>
+      </c>
+      <c r="B13" t="str">
+        <f>SUBSTITUTE(Table1345[[#This Row],[SKU]],"(","")</f>
+        <v>43-27)</v>
+      </c>
+      <c r="C13" t="str">
+        <f>SUBSTITUTE(Table1345[[#This Row],[SKU1]],")","")</f>
+        <v>43-27</v>
+      </c>
+      <c r="D13" t="s">
+        <v>385</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>385</v>
+      </c>
+      <c r="F13" s="3">
+        <v>87139</v>
+      </c>
+      <c r="G13" t="s">
+        <v>10</v>
+      </c>
+      <c r="I13">
+        <v>1</v>
+      </c>
+      <c r="J13">
+        <v>16</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>1</v>
+      </c>
+      <c r="N13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>368</v>
+      </c>
+      <c r="B14" t="str">
+        <f>SUBSTITUTE(Table1345[[#This Row],[SKU]],"(","")</f>
+        <v>43-29)</v>
+      </c>
+      <c r="C14" t="str">
+        <f>SUBSTITUTE(Table1345[[#This Row],[SKU1]],")","")</f>
+        <v>43-29</v>
+      </c>
+      <c r="D14" t="s">
+        <v>386</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>386</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>350</v>
+      </c>
+      <c r="G14" t="s">
+        <v>10</v>
+      </c>
+      <c r="I14">
+        <v>1</v>
+      </c>
+      <c r="J14">
+        <v>16</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>1</v>
+      </c>
+      <c r="N14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>369</v>
+      </c>
+      <c r="B15" t="str">
+        <f>SUBSTITUTE(Table1345[[#This Row],[SKU]],"(","")</f>
+        <v>43-30)</v>
+      </c>
+      <c r="C15" t="str">
+        <f>SUBSTITUTE(Table1345[[#This Row],[SKU1]],")","")</f>
+        <v>43-30</v>
+      </c>
+      <c r="D15" t="s">
+        <v>387</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>387</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>351</v>
+      </c>
+      <c r="G15" t="s">
+        <v>10</v>
+      </c>
+      <c r="I15">
+        <v>1</v>
+      </c>
+      <c r="J15">
+        <v>16</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>1</v>
+      </c>
+      <c r="N15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>370</v>
+      </c>
+      <c r="B16" t="str">
+        <f>SUBSTITUTE(Table1345[[#This Row],[SKU]],"(","")</f>
+        <v>43-31)</v>
+      </c>
+      <c r="C16" t="str">
+        <f>SUBSTITUTE(Table1345[[#This Row],[SKU1]],")","")</f>
+        <v>43-31</v>
+      </c>
+      <c r="D16" t="s">
+        <v>388</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>388</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>352</v>
+      </c>
+      <c r="G16" t="s">
+        <v>10</v>
+      </c>
+      <c r="I16">
+        <v>1</v>
+      </c>
+      <c r="J16">
+        <v>16</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>1</v>
+      </c>
+      <c r="N16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>371</v>
+      </c>
+      <c r="B17" t="str">
+        <f>SUBSTITUTE(Table1345[[#This Row],[SKU]],"(","")</f>
+        <v>43-32)</v>
+      </c>
+      <c r="C17" t="str">
+        <f>SUBSTITUTE(Table1345[[#This Row],[SKU1]],")","")</f>
+        <v>43-32</v>
+      </c>
+      <c r="D17" t="s">
+        <v>389</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>389</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>353</v>
+      </c>
+      <c r="G17" t="s">
+        <v>10</v>
+      </c>
+      <c r="I17">
+        <v>1</v>
+      </c>
+      <c r="J17">
+        <v>16</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>1</v>
+      </c>
+      <c r="N17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>372</v>
+      </c>
+      <c r="B18" t="str">
+        <f>SUBSTITUTE(Table1345[[#This Row],[SKU]],"(","")</f>
+        <v>43-33)</v>
+      </c>
+      <c r="C18" t="str">
+        <f>SUBSTITUTE(Table1345[[#This Row],[SKU1]],")","")</f>
+        <v>43-33</v>
+      </c>
+      <c r="D18" t="s">
+        <v>390</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>390</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>354</v>
+      </c>
+      <c r="G18" t="s">
+        <v>10</v>
+      </c>
+      <c r="I18">
+        <v>1</v>
+      </c>
+      <c r="J18">
+        <v>16</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>1</v>
+      </c>
+      <c r="N18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>373</v>
+      </c>
+      <c r="B19" t="str">
+        <f>SUBSTITUTE(Table1345[[#This Row],[SKU]],"(","")</f>
+        <v>43-34)</v>
+      </c>
+      <c r="C19" t="str">
+        <f>SUBSTITUTE(Table1345[[#This Row],[SKU1]],")","")</f>
+        <v>43-34</v>
+      </c>
+      <c r="D19" t="s">
+        <v>391</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>391</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>355</v>
+      </c>
+      <c r="G19" t="s">
+        <v>10</v>
+      </c>
+      <c r="I19">
+        <v>1</v>
+      </c>
+      <c r="J19">
+        <v>16</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>1</v>
+      </c>
+      <c r="N19">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5FEBC371-E2D8-4342-8539-7DF09C777E3F}">
+  <dimension ref="A1:O67"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="F83" sqref="F83"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" outlineLevelCol="1" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="6.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="4.7109375" customWidth="1"/>
-    <col min="3" max="3" width="76.7109375" customWidth="1"/>
+    <col min="3" max="3" width="30.5703125" customWidth="1"/>
     <col min="4" max="4" width="41" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="27.28515625" customWidth="1"/>
     <col min="6" max="6" width="10.85546875" bestFit="1" customWidth="1"/>
@@ -1276,466 +3384,543 @@
         <v>16</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>238</v>
+        <v>193</v>
       </c>
       <c r="N1" s="1" t="s">
         <v>17</v>
       </c>
       <c r="O1" s="1" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>195</v>
+      </c>
+      <c r="C2" t="s">
+        <v>196</v>
+      </c>
+      <c r="E2" t="s">
+        <v>197</v>
+      </c>
+      <c r="F2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H2">
+        <v>1</v>
+      </c>
+      <c r="I2">
+        <v>9</v>
+      </c>
+      <c r="K2">
+        <v>1</v>
+      </c>
+      <c r="L2">
+        <v>1</v>
+      </c>
+      <c r="M2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>198</v>
+      </c>
+      <c r="C3" t="s">
+        <v>199</v>
+      </c>
+      <c r="D3" s="2"/>
+      <c r="E3" t="s">
+        <v>200</v>
+      </c>
+      <c r="F3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H3">
+        <v>1</v>
+      </c>
+      <c r="I3">
+        <v>9</v>
+      </c>
+      <c r="K3">
+        <v>1</v>
+      </c>
+      <c r="L3">
+        <v>1</v>
+      </c>
+      <c r="M3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>201</v>
+      </c>
+      <c r="C4" t="s">
+        <v>202</v>
+      </c>
+      <c r="D4" s="2"/>
+      <c r="E4" t="s">
+        <v>203</v>
+      </c>
+      <c r="F4" t="s">
+        <v>10</v>
+      </c>
+      <c r="H4">
+        <v>1</v>
+      </c>
+      <c r="I4">
+        <v>9</v>
+      </c>
+      <c r="K4">
+        <v>1</v>
+      </c>
+      <c r="L4">
+        <v>1</v>
+      </c>
+      <c r="M4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>204</v>
+      </c>
+      <c r="C5" t="s">
+        <v>205</v>
+      </c>
+      <c r="D5" s="2"/>
+      <c r="E5" t="s">
+        <v>206</v>
+      </c>
+      <c r="F5" t="s">
+        <v>10</v>
+      </c>
+      <c r="H5">
+        <v>1</v>
+      </c>
+      <c r="I5">
+        <v>9</v>
+      </c>
+      <c r="K5">
+        <v>1</v>
+      </c>
+      <c r="L5">
+        <v>1</v>
+      </c>
+      <c r="M5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>207</v>
+      </c>
+      <c r="C6" t="s">
+        <v>208</v>
+      </c>
+      <c r="D6" s="2"/>
+      <c r="E6" t="s">
+        <v>209</v>
+      </c>
+      <c r="F6" t="s">
+        <v>10</v>
+      </c>
+      <c r="H6">
+        <v>1</v>
+      </c>
+      <c r="I6">
+        <v>9</v>
+      </c>
+      <c r="K6">
+        <v>1</v>
+      </c>
+      <c r="L6">
+        <v>1</v>
+      </c>
+      <c r="M6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>210</v>
+      </c>
+      <c r="C7" t="s">
+        <v>211</v>
+      </c>
+      <c r="D7" s="2"/>
+      <c r="E7" t="s">
+        <v>212</v>
+      </c>
+      <c r="F7" t="s">
+        <v>10</v>
+      </c>
+      <c r="H7">
+        <v>1</v>
+      </c>
+      <c r="I7">
+        <v>9</v>
+      </c>
+      <c r="K7">
+        <v>1</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>213</v>
+      </c>
+      <c r="C8" t="s">
+        <v>214</v>
+      </c>
+      <c r="D8" s="2"/>
+      <c r="E8" t="s">
+        <v>215</v>
+      </c>
+      <c r="F8" t="s">
+        <v>10</v>
+      </c>
+      <c r="H8">
+        <v>1</v>
+      </c>
+      <c r="I8">
+        <v>9</v>
+      </c>
+      <c r="K8">
+        <v>1</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>216</v>
+      </c>
+      <c r="C9" t="s">
+        <v>217</v>
+      </c>
+      <c r="D9" s="2"/>
+      <c r="E9" t="s">
+        <v>218</v>
+      </c>
+      <c r="F9" t="s">
+        <v>10</v>
+      </c>
+      <c r="H9">
+        <v>1</v>
+      </c>
+      <c r="I9">
+        <v>9</v>
+      </c>
+      <c r="K9">
+        <v>1</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>219</v>
+      </c>
+      <c r="C10" t="s">
+        <v>220</v>
+      </c>
+      <c r="D10" s="2"/>
+      <c r="E10" t="s">
+        <v>221</v>
+      </c>
+      <c r="F10" t="s">
+        <v>10</v>
+      </c>
+      <c r="H10">
+        <v>1</v>
+      </c>
+      <c r="I10">
+        <v>9</v>
+      </c>
+      <c r="K10">
+        <v>1</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>222</v>
+      </c>
+      <c r="C11" t="s">
+        <v>223</v>
+      </c>
+      <c r="D11" s="2"/>
+      <c r="E11" t="s">
+        <v>224</v>
+      </c>
+      <c r="F11" t="s">
+        <v>10</v>
+      </c>
+      <c r="H11">
+        <v>1</v>
+      </c>
+      <c r="I11">
+        <v>9</v>
+      </c>
+      <c r="K11">
+        <v>1</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>225</v>
+      </c>
+      <c r="C12" t="s">
+        <v>226</v>
+      </c>
+      <c r="D12" s="2"/>
+      <c r="E12" t="s">
+        <v>227</v>
+      </c>
+      <c r="F12" t="s">
+        <v>10</v>
+      </c>
+      <c r="H12">
+        <v>1</v>
+      </c>
+      <c r="I12">
+        <v>9</v>
+      </c>
+      <c r="K12">
+        <v>1</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>228</v>
+      </c>
+      <c r="C13" t="s">
+        <v>229</v>
+      </c>
+      <c r="D13" s="2"/>
+      <c r="E13" t="s">
+        <v>227</v>
+      </c>
+      <c r="F13" t="s">
+        <v>10</v>
+      </c>
+      <c r="H13">
+        <v>1</v>
+      </c>
+      <c r="I13">
+        <v>9</v>
+      </c>
+      <c r="K13">
+        <v>1</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>230</v>
+      </c>
+      <c r="C14" t="s">
+        <v>231</v>
+      </c>
+      <c r="D14" s="2"/>
+      <c r="E14" t="s">
+        <v>232</v>
+      </c>
+      <c r="F14" t="s">
+        <v>10</v>
+      </c>
+      <c r="H14">
+        <v>1</v>
+      </c>
+      <c r="I14">
+        <v>9</v>
+      </c>
+      <c r="K14">
+        <v>1</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>233</v>
+      </c>
+      <c r="C15" t="s">
+        <v>234</v>
+      </c>
+      <c r="D15" s="2"/>
+      <c r="E15" t="s">
+        <v>232</v>
+      </c>
+      <c r="F15" t="s">
+        <v>10</v>
+      </c>
+      <c r="H15">
+        <v>1</v>
+      </c>
+      <c r="I15">
+        <v>9</v>
+      </c>
+      <c r="K15">
+        <v>1</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>235</v>
+      </c>
+      <c r="C16" t="s">
+        <v>236</v>
+      </c>
+      <c r="D16" s="2"/>
+      <c r="E16" t="s">
+        <v>232</v>
+      </c>
+      <c r="F16" t="s">
+        <v>10</v>
+      </c>
+      <c r="H16">
+        <v>1</v>
+      </c>
+      <c r="I16">
+        <v>9</v>
+      </c>
+      <c r="K16">
+        <v>1</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>237</v>
+      </c>
+      <c r="C17" t="s">
+        <v>238</v>
+      </c>
+      <c r="D17" s="2"/>
+      <c r="E17" t="s">
+        <v>232</v>
+      </c>
+      <c r="F17" t="s">
+        <v>10</v>
+      </c>
+      <c r="H17">
+        <v>1</v>
+      </c>
+      <c r="I17">
+        <v>9</v>
+      </c>
+      <c r="K17">
+        <v>1</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
         <v>239</v>
       </c>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="C2" t="s">
-        <v>193</v>
-      </c>
-      <c r="D2" t="s">
-        <v>101</v>
-      </c>
-      <c r="E2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F2" t="s">
-        <v>10</v>
-      </c>
-      <c r="H2">
-        <v>1</v>
-      </c>
-      <c r="I2">
-        <v>15</v>
-      </c>
-      <c r="K2">
-        <v>1</v>
-      </c>
-      <c r="L2">
-        <v>1</v>
-      </c>
-      <c r="M2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="C3" t="s">
-        <v>194</v>
-      </c>
-      <c r="D3" t="s">
-        <v>103</v>
-      </c>
-      <c r="H3">
-        <v>1</v>
-      </c>
-      <c r="I3">
-        <v>15</v>
-      </c>
-      <c r="K3">
-        <v>1</v>
-      </c>
-      <c r="L3">
-        <v>1</v>
-      </c>
-      <c r="M3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="C4" t="s">
-        <v>195</v>
-      </c>
-      <c r="D4" t="s">
-        <v>105</v>
-      </c>
-      <c r="H4">
-        <v>1</v>
-      </c>
-      <c r="I4">
-        <v>15</v>
-      </c>
-      <c r="K4">
-        <v>1</v>
-      </c>
-      <c r="L4">
-        <v>1</v>
-      </c>
-      <c r="M4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="C5" t="s">
-        <v>237</v>
-      </c>
-      <c r="D5" t="s">
-        <v>107</v>
-      </c>
-      <c r="H5">
-        <v>1</v>
-      </c>
-      <c r="I5">
-        <v>15</v>
-      </c>
-      <c r="K5">
-        <v>1</v>
-      </c>
-      <c r="L5">
-        <v>1</v>
-      </c>
-      <c r="M5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="C6" t="s">
+      <c r="C18" t="s">
         <v>240</v>
       </c>
-      <c r="D6" t="s">
-        <v>109</v>
-      </c>
-      <c r="E6" t="s">
+      <c r="D18" s="2"/>
+      <c r="E18" t="s">
+        <v>232</v>
+      </c>
+      <c r="F18" t="s">
+        <v>10</v>
+      </c>
+      <c r="H18">
+        <v>1</v>
+      </c>
+      <c r="I18">
+        <v>9</v>
+      </c>
+      <c r="K18">
+        <v>1</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
         <v>241</v>
       </c>
-      <c r="H6">
-        <v>1</v>
-      </c>
-      <c r="I6">
-        <v>15</v>
-      </c>
-      <c r="K6">
-        <v>1</v>
-      </c>
-      <c r="L6">
-        <v>1</v>
-      </c>
-      <c r="M6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="C7" t="s">
-        <v>196</v>
-      </c>
-      <c r="D7" t="s">
-        <v>111</v>
-      </c>
-      <c r="E7" t="s">
-        <v>20</v>
-      </c>
-      <c r="H7">
-        <v>1</v>
-      </c>
-      <c r="I7">
-        <v>15</v>
-      </c>
-      <c r="K7">
-        <v>1</v>
-      </c>
-      <c r="L7">
-        <v>1</v>
-      </c>
-      <c r="M7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="C8" t="s">
-        <v>197</v>
-      </c>
-      <c r="D8" t="s">
-        <v>113</v>
-      </c>
-      <c r="E8" t="s">
-        <v>21</v>
-      </c>
-      <c r="H8">
-        <v>1</v>
-      </c>
-      <c r="I8">
-        <v>15</v>
-      </c>
-      <c r="K8">
-        <v>1</v>
-      </c>
-      <c r="L8">
-        <v>1</v>
-      </c>
-      <c r="M8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="C9" t="s">
-        <v>198</v>
-      </c>
-      <c r="D9" t="s">
-        <v>115</v>
-      </c>
-      <c r="E9" t="s">
-        <v>22</v>
-      </c>
-      <c r="H9">
-        <v>1</v>
-      </c>
-      <c r="I9">
-        <v>15</v>
-      </c>
-      <c r="K9">
-        <v>1</v>
-      </c>
-      <c r="L9">
-        <v>1</v>
-      </c>
-      <c r="M9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="C10" t="s">
-        <v>199</v>
-      </c>
-      <c r="D10" t="s">
-        <v>115</v>
-      </c>
-      <c r="E10" t="s">
-        <v>23</v>
-      </c>
-      <c r="H10">
-        <v>1</v>
-      </c>
-      <c r="I10">
-        <v>15</v>
-      </c>
-      <c r="K10">
-        <v>1</v>
-      </c>
-      <c r="L10">
-        <v>1</v>
-      </c>
-      <c r="M10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="C11" t="s">
-        <v>200</v>
-      </c>
-      <c r="D11" t="s">
-        <v>115</v>
-      </c>
-      <c r="E11" t="s">
-        <v>24</v>
-      </c>
-      <c r="H11">
-        <v>1</v>
-      </c>
-      <c r="I11">
-        <v>15</v>
-      </c>
-      <c r="K11">
-        <v>1</v>
-      </c>
-      <c r="L11">
-        <v>1</v>
-      </c>
-      <c r="M11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="C12" t="s">
-        <v>201</v>
-      </c>
-      <c r="D12" t="s">
-        <v>115</v>
-      </c>
-      <c r="E12" t="s">
-        <v>25</v>
-      </c>
-      <c r="H12">
-        <v>1</v>
-      </c>
-      <c r="I12">
-        <v>15</v>
-      </c>
-      <c r="K12">
-        <v>1</v>
-      </c>
-      <c r="L12">
-        <v>1</v>
-      </c>
-      <c r="M12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="C13" t="s">
-        <v>202</v>
-      </c>
-      <c r="D13" t="s">
-        <v>120</v>
-      </c>
-      <c r="E13" t="s">
-        <v>26</v>
-      </c>
-      <c r="H13">
-        <v>1</v>
-      </c>
-      <c r="I13">
-        <v>15</v>
-      </c>
-      <c r="K13">
-        <v>1</v>
-      </c>
-      <c r="L13">
-        <v>1</v>
-      </c>
-      <c r="M13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="C14" t="s">
-        <v>203</v>
-      </c>
-      <c r="D14" t="s">
-        <v>122</v>
-      </c>
-      <c r="E14" t="s">
-        <v>27</v>
-      </c>
-      <c r="H14">
-        <v>1</v>
-      </c>
-      <c r="I14">
-        <v>15</v>
-      </c>
-      <c r="K14">
-        <v>1</v>
-      </c>
-      <c r="L14">
-        <v>1</v>
-      </c>
-      <c r="M14">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="C15" t="s">
-        <v>204</v>
-      </c>
-      <c r="D15" t="s">
-        <v>124</v>
-      </c>
-      <c r="E15" t="s">
-        <v>28</v>
-      </c>
-      <c r="H15">
-        <v>1</v>
-      </c>
-      <c r="I15">
-        <v>15</v>
-      </c>
-      <c r="K15">
-        <v>1</v>
-      </c>
-      <c r="L15">
-        <v>1</v>
-      </c>
-      <c r="M15">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="C16" t="s">
-        <v>205</v>
-      </c>
-      <c r="D16" t="s">
-        <v>126</v>
-      </c>
-      <c r="E16" t="s">
-        <v>29</v>
-      </c>
-      <c r="H16">
-        <v>1</v>
-      </c>
-      <c r="I16">
-        <v>15</v>
-      </c>
-      <c r="K16">
-        <v>1</v>
-      </c>
-      <c r="L16">
-        <v>1</v>
-      </c>
-      <c r="M16">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="3:13" x14ac:dyDescent="0.25">
-      <c r="C17" t="s">
+      <c r="C19" t="s">
         <v>242</v>
       </c>
-      <c r="D17" t="s">
-        <v>128</v>
-      </c>
-      <c r="E17" t="s">
-        <v>30</v>
-      </c>
-      <c r="H17">
-        <v>1</v>
-      </c>
-      <c r="I17">
-        <v>15</v>
-      </c>
-      <c r="K17">
-        <v>1</v>
-      </c>
-      <c r="L17">
-        <v>1</v>
-      </c>
-      <c r="M17">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="3:13" x14ac:dyDescent="0.25">
-      <c r="C18" t="s">
-        <v>206</v>
-      </c>
-      <c r="D18" t="s">
-        <v>130</v>
-      </c>
-      <c r="E18" t="s">
-        <v>187</v>
-      </c>
-      <c r="H18">
-        <v>1</v>
-      </c>
-      <c r="I18">
-        <v>15</v>
-      </c>
-      <c r="K18">
-        <v>1</v>
-      </c>
-      <c r="L18">
-        <v>1</v>
-      </c>
-      <c r="M18">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="3:13" x14ac:dyDescent="0.25">
-      <c r="C19" t="s">
-        <v>207</v>
-      </c>
-      <c r="D19" t="s">
-        <v>132</v>
-      </c>
+      <c r="D19" s="2"/>
       <c r="E19" t="s">
-        <v>188</v>
+        <v>232</v>
+      </c>
+      <c r="F19" t="s">
+        <v>10</v>
       </c>
       <c r="H19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="K19">
         <v>1</v>
@@ -1747,18 +3932,25 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>243</v>
+      </c>
       <c r="C20" t="s">
-        <v>208</v>
-      </c>
-      <c r="D20" t="s">
-        <v>134</v>
+        <v>244</v>
+      </c>
+      <c r="D20" s="2"/>
+      <c r="E20" t="s">
+        <v>232</v>
+      </c>
+      <c r="F20" t="s">
+        <v>10</v>
       </c>
       <c r="H20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="K20">
         <v>1</v>
@@ -1770,21 +3962,25 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>245</v>
+      </c>
       <c r="C21" t="s">
-        <v>209</v>
-      </c>
-      <c r="D21" t="s">
-        <v>136</v>
-      </c>
+        <v>246</v>
+      </c>
+      <c r="D21" s="2"/>
       <c r="E21" t="s">
-        <v>33</v>
+        <v>232</v>
+      </c>
+      <c r="F21" t="s">
+        <v>10</v>
       </c>
       <c r="H21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="K21">
         <v>1</v>
@@ -1796,21 +3992,25 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>247</v>
+      </c>
       <c r="C22" t="s">
-        <v>210</v>
-      </c>
-      <c r="D22" t="s">
-        <v>138</v>
-      </c>
+        <v>248</v>
+      </c>
+      <c r="D22" s="2"/>
       <c r="E22" t="s">
-        <v>34</v>
+        <v>232</v>
+      </c>
+      <c r="F22" t="s">
+        <v>10</v>
       </c>
       <c r="H22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="K22">
         <v>1</v>
@@ -1822,21 +4022,25 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>249</v>
+      </c>
       <c r="C23" t="s">
-        <v>211</v>
-      </c>
-      <c r="D23" t="s">
-        <v>140</v>
-      </c>
+        <v>250</v>
+      </c>
+      <c r="D23" s="2"/>
       <c r="E23" t="s">
-        <v>35</v>
+        <v>232</v>
+      </c>
+      <c r="F23" t="s">
+        <v>10</v>
       </c>
       <c r="H23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="K23">
         <v>1</v>
@@ -1848,21 +4052,25 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>251</v>
+      </c>
       <c r="C24" t="s">
-        <v>212</v>
-      </c>
-      <c r="D24" t="s">
-        <v>142</v>
-      </c>
+        <v>252</v>
+      </c>
+      <c r="D24" s="2"/>
       <c r="E24" t="s">
-        <v>35</v>
+        <v>232</v>
+      </c>
+      <c r="F24" t="s">
+        <v>10</v>
       </c>
       <c r="H24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="K24">
         <v>1</v>
@@ -1874,21 +4082,25 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>253</v>
+      </c>
       <c r="C25" t="s">
-        <v>213</v>
-      </c>
-      <c r="D25" t="s">
-        <v>144</v>
-      </c>
+        <v>254</v>
+      </c>
+      <c r="D25" s="2"/>
       <c r="E25" t="s">
-        <v>36</v>
+        <v>232</v>
+      </c>
+      <c r="F25" t="s">
+        <v>10</v>
       </c>
       <c r="H25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="K25">
         <v>1</v>
@@ -1900,21 +4112,25 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>255</v>
+      </c>
       <c r="C26" t="s">
-        <v>214</v>
-      </c>
-      <c r="D26" t="s">
-        <v>146</v>
-      </c>
+        <v>256</v>
+      </c>
+      <c r="D26" s="2"/>
       <c r="E26" t="s">
-        <v>189</v>
+        <v>232</v>
+      </c>
+      <c r="F26" t="s">
+        <v>10</v>
       </c>
       <c r="H26">
         <v>1</v>
       </c>
       <c r="I26">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="K26">
         <v>1</v>
@@ -1926,21 +4142,25 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>257</v>
+      </c>
       <c r="C27" t="s">
-        <v>215</v>
-      </c>
-      <c r="D27" t="s">
-        <v>148</v>
-      </c>
+        <v>258</v>
+      </c>
+      <c r="D27" s="2"/>
       <c r="E27" t="s">
-        <v>190</v>
+        <v>232</v>
+      </c>
+      <c r="F27" t="s">
+        <v>10</v>
       </c>
       <c r="H27">
         <v>1</v>
       </c>
       <c r="I27">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="K27">
         <v>1</v>
@@ -1952,18 +4172,25 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>259</v>
+      </c>
       <c r="C28" t="s">
-        <v>216</v>
-      </c>
-      <c r="D28" t="s">
-        <v>150</v>
+        <v>260</v>
+      </c>
+      <c r="D28" s="2"/>
+      <c r="E28" t="s">
+        <v>232</v>
+      </c>
+      <c r="F28" t="s">
+        <v>10</v>
       </c>
       <c r="H28">
         <v>1</v>
       </c>
       <c r="I28">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="K28">
         <v>1</v>
@@ -1975,21 +4202,25 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>261</v>
+      </c>
       <c r="C29" t="s">
-        <v>217</v>
-      </c>
-      <c r="D29" t="s">
-        <v>152</v>
-      </c>
+        <v>262</v>
+      </c>
+      <c r="D29" s="2"/>
       <c r="E29" t="s">
-        <v>39</v>
+        <v>232</v>
+      </c>
+      <c r="F29" t="s">
+        <v>10</v>
       </c>
       <c r="H29">
         <v>1</v>
       </c>
       <c r="I29">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="K29">
         <v>1</v>
@@ -2001,21 +4232,25 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>263</v>
+      </c>
       <c r="C30" t="s">
-        <v>218</v>
-      </c>
-      <c r="D30" t="s">
-        <v>154</v>
-      </c>
+        <v>264</v>
+      </c>
+      <c r="D30" s="2"/>
       <c r="E30" t="s">
-        <v>40</v>
+        <v>232</v>
+      </c>
+      <c r="F30" t="s">
+        <v>10</v>
       </c>
       <c r="H30">
         <v>1</v>
       </c>
       <c r="I30">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="K30">
         <v>1</v>
@@ -2027,21 +4262,25 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>265</v>
+      </c>
       <c r="C31" t="s">
-        <v>219</v>
-      </c>
-      <c r="D31" t="s">
-        <v>156</v>
-      </c>
+        <v>266</v>
+      </c>
+      <c r="D31" s="2"/>
       <c r="E31" t="s">
-        <v>41</v>
+        <v>232</v>
+      </c>
+      <c r="F31" t="s">
+        <v>10</v>
       </c>
       <c r="H31">
         <v>1</v>
       </c>
       <c r="I31">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="K31">
         <v>1</v>
@@ -2053,21 +4292,25 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>267</v>
+      </c>
       <c r="C32" t="s">
-        <v>220</v>
-      </c>
-      <c r="D32" t="s">
-        <v>158</v>
-      </c>
+        <v>268</v>
+      </c>
+      <c r="D32" s="2"/>
       <c r="E32" t="s">
-        <v>42</v>
+        <v>232</v>
+      </c>
+      <c r="F32" t="s">
+        <v>10</v>
       </c>
       <c r="H32">
         <v>1</v>
       </c>
       <c r="I32">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="K32">
         <v>1</v>
@@ -2079,21 +4322,25 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>269</v>
+      </c>
       <c r="C33" t="s">
-        <v>221</v>
-      </c>
-      <c r="D33" t="s">
-        <v>160</v>
-      </c>
+        <v>270</v>
+      </c>
+      <c r="D33" s="2"/>
       <c r="E33" t="s">
-        <v>43</v>
+        <v>232</v>
+      </c>
+      <c r="F33" t="s">
+        <v>10</v>
       </c>
       <c r="H33">
         <v>1</v>
       </c>
       <c r="I33">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="K33">
         <v>1</v>
@@ -2105,18 +4352,25 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>271</v>
+      </c>
       <c r="C34" t="s">
-        <v>222</v>
-      </c>
-      <c r="D34" t="s">
-        <v>162</v>
+        <v>272</v>
+      </c>
+      <c r="D34" s="2"/>
+      <c r="E34" t="s">
+        <v>232</v>
+      </c>
+      <c r="F34" t="s">
+        <v>10</v>
       </c>
       <c r="H34">
         <v>1</v>
       </c>
       <c r="I34">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="K34">
         <v>1</v>
@@ -2128,18 +4382,25 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>273</v>
+      </c>
       <c r="C35" t="s">
-        <v>223</v>
-      </c>
-      <c r="D35" t="s">
-        <v>164</v>
+        <v>274</v>
+      </c>
+      <c r="D35" s="2"/>
+      <c r="E35" t="s">
+        <v>232</v>
+      </c>
+      <c r="F35" t="s">
+        <v>10</v>
       </c>
       <c r="H35">
         <v>1</v>
       </c>
       <c r="I35">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="K35">
         <v>1</v>
@@ -2151,18 +4412,25 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>275</v>
+      </c>
       <c r="C36" t="s">
-        <v>166</v>
-      </c>
-      <c r="D36" t="s">
-        <v>164</v>
+        <v>276</v>
+      </c>
+      <c r="D36" s="2"/>
+      <c r="E36" t="s">
+        <v>232</v>
+      </c>
+      <c r="F36" t="s">
+        <v>10</v>
       </c>
       <c r="H36">
         <v>1</v>
       </c>
       <c r="I36">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="K36">
         <v>1</v>
@@ -2174,18 +4442,25 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>277</v>
+      </c>
       <c r="C37" t="s">
-        <v>168</v>
-      </c>
-      <c r="D37" t="s">
-        <v>167</v>
+        <v>278</v>
+      </c>
+      <c r="D37" s="2"/>
+      <c r="E37" t="s">
+        <v>232</v>
+      </c>
+      <c r="F37" t="s">
+        <v>10</v>
       </c>
       <c r="H37">
         <v>1</v>
       </c>
       <c r="I37">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="K37">
         <v>1</v>
@@ -2197,18 +4472,25 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>279</v>
+      </c>
       <c r="C38" t="s">
-        <v>224</v>
-      </c>
-      <c r="D38" t="s">
-        <v>171</v>
+        <v>280</v>
+      </c>
+      <c r="D38" s="2"/>
+      <c r="E38" t="s">
+        <v>232</v>
+      </c>
+      <c r="F38" t="s">
+        <v>10</v>
       </c>
       <c r="H38">
         <v>1</v>
       </c>
       <c r="I38">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="K38">
         <v>1</v>
@@ -2220,18 +4502,25 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>281</v>
+      </c>
       <c r="C39" t="s">
-        <v>225</v>
-      </c>
-      <c r="D39" t="s">
-        <v>173</v>
+        <v>282</v>
+      </c>
+      <c r="D39" s="2"/>
+      <c r="E39" t="s">
+        <v>232</v>
+      </c>
+      <c r="F39" t="s">
+        <v>10</v>
       </c>
       <c r="H39">
         <v>1</v>
       </c>
       <c r="I39">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="K39">
         <v>1</v>
@@ -2243,21 +4532,25 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>283</v>
+      </c>
       <c r="C40" t="s">
-        <v>226</v>
-      </c>
-      <c r="D40" t="s">
-        <v>175</v>
-      </c>
+        <v>284</v>
+      </c>
+      <c r="D40" s="2"/>
       <c r="E40" t="s">
-        <v>44</v>
+        <v>232</v>
+      </c>
+      <c r="F40" t="s">
+        <v>10</v>
       </c>
       <c r="H40">
         <v>1</v>
       </c>
       <c r="I40">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="K40">
         <v>1</v>
@@ -2269,21 +4562,25 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>285</v>
+      </c>
       <c r="C41" t="s">
-        <v>227</v>
-      </c>
-      <c r="D41" t="s">
-        <v>177</v>
-      </c>
+        <v>286</v>
+      </c>
+      <c r="D41" s="2"/>
       <c r="E41" t="s">
-        <v>45</v>
+        <v>232</v>
+      </c>
+      <c r="F41" t="s">
+        <v>10</v>
       </c>
       <c r="H41">
         <v>1</v>
       </c>
       <c r="I41">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="K41">
         <v>1</v>
@@ -2295,18 +4592,25 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>287</v>
+      </c>
       <c r="C42" t="s">
-        <v>228</v>
-      </c>
-      <c r="D42" t="s">
-        <v>179</v>
+        <v>288</v>
+      </c>
+      <c r="D42" s="2"/>
+      <c r="E42" t="s">
+        <v>232</v>
+      </c>
+      <c r="F42" t="s">
+        <v>10</v>
       </c>
       <c r="H42">
         <v>1</v>
       </c>
       <c r="I42">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="K42">
         <v>1</v>
@@ -2318,21 +4622,25 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>289</v>
+      </c>
       <c r="C43" t="s">
-        <v>229</v>
-      </c>
-      <c r="D43" t="s">
-        <v>181</v>
-      </c>
+        <v>290</v>
+      </c>
+      <c r="D43" s="2"/>
       <c r="E43" t="s">
-        <v>46</v>
+        <v>232</v>
+      </c>
+      <c r="F43" t="s">
+        <v>10</v>
       </c>
       <c r="H43">
         <v>1</v>
       </c>
       <c r="I43">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="K43">
         <v>1</v>
@@ -2344,18 +4652,25 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>291</v>
+      </c>
       <c r="C44" t="s">
-        <v>230</v>
-      </c>
-      <c r="D44" t="s">
-        <v>183</v>
+        <v>292</v>
+      </c>
+      <c r="D44" s="2"/>
+      <c r="E44" t="s">
+        <v>232</v>
+      </c>
+      <c r="F44" t="s">
+        <v>10</v>
       </c>
       <c r="H44">
         <v>1</v>
       </c>
       <c r="I44">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="K44">
         <v>1</v>
@@ -2367,21 +4682,25 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>293</v>
+      </c>
       <c r="C45" t="s">
-        <v>231</v>
-      </c>
-      <c r="D45" t="s">
-        <v>185</v>
-      </c>
+        <v>294</v>
+      </c>
+      <c r="D45" s="2"/>
       <c r="E45" t="s">
-        <v>47</v>
+        <v>232</v>
+      </c>
+      <c r="F45" t="s">
+        <v>10</v>
       </c>
       <c r="H45">
         <v>1</v>
       </c>
       <c r="I45">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="K45">
         <v>1</v>
@@ -2393,21 +4712,25 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>295</v>
+      </c>
       <c r="C46" t="s">
+        <v>296</v>
+      </c>
+      <c r="D46" s="2"/>
+      <c r="E46" t="s">
         <v>232</v>
       </c>
-      <c r="D46" t="s">
-        <v>185</v>
-      </c>
-      <c r="E46" t="s">
-        <v>48</v>
+      <c r="F46" t="s">
+        <v>10</v>
       </c>
       <c r="H46">
         <v>1</v>
       </c>
       <c r="I46">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="K46">
         <v>1</v>
@@ -2419,21 +4742,25 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>297</v>
+      </c>
       <c r="C47" t="s">
-        <v>233</v>
-      </c>
-      <c r="D47" t="s">
-        <v>185</v>
-      </c>
+        <v>298</v>
+      </c>
+      <c r="D47" s="2"/>
       <c r="E47" t="s">
-        <v>49</v>
+        <v>232</v>
+      </c>
+      <c r="F47" t="s">
+        <v>10</v>
       </c>
       <c r="H47">
         <v>1</v>
       </c>
       <c r="I47">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="K47">
         <v>1</v>
@@ -2445,21 +4772,25 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>299</v>
+      </c>
       <c r="C48" t="s">
-        <v>234</v>
-      </c>
-      <c r="D48" t="s">
-        <v>185</v>
-      </c>
+        <v>300</v>
+      </c>
+      <c r="D48" s="2"/>
       <c r="E48" t="s">
-        <v>50</v>
+        <v>232</v>
+      </c>
+      <c r="F48" t="s">
+        <v>10</v>
       </c>
       <c r="H48">
         <v>1</v>
       </c>
       <c r="I48">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="K48">
         <v>1</v>
@@ -2471,21 +4802,25 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>301</v>
+      </c>
       <c r="C49" t="s">
-        <v>235</v>
-      </c>
-      <c r="D49" t="s">
-        <v>185</v>
-      </c>
+        <v>302</v>
+      </c>
+      <c r="D49" s="2"/>
       <c r="E49" t="s">
-        <v>51</v>
+        <v>232</v>
+      </c>
+      <c r="F49" t="s">
+        <v>10</v>
       </c>
       <c r="H49">
         <v>1</v>
       </c>
       <c r="I49">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="K49">
         <v>1</v>
@@ -2497,21 +4832,25 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>303</v>
+      </c>
       <c r="C50" t="s">
-        <v>236</v>
-      </c>
-      <c r="D50" t="s">
-        <v>185</v>
-      </c>
+        <v>304</v>
+      </c>
+      <c r="D50" s="2"/>
       <c r="E50" t="s">
-        <v>52</v>
+        <v>232</v>
+      </c>
+      <c r="F50" t="s">
+        <v>10</v>
       </c>
       <c r="H50">
         <v>1</v>
       </c>
       <c r="I50">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="K50">
         <v>1</v>
@@ -2520,6 +4859,516 @@
         <v>1</v>
       </c>
       <c r="M50">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>305</v>
+      </c>
+      <c r="C51" t="s">
+        <v>306</v>
+      </c>
+      <c r="D51" s="2"/>
+      <c r="E51" t="s">
+        <v>232</v>
+      </c>
+      <c r="F51" t="s">
+        <v>10</v>
+      </c>
+      <c r="H51">
+        <v>1</v>
+      </c>
+      <c r="I51">
+        <v>9</v>
+      </c>
+      <c r="K51">
+        <v>1</v>
+      </c>
+      <c r="L51">
+        <v>1</v>
+      </c>
+      <c r="M51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>307</v>
+      </c>
+      <c r="C52" t="s">
+        <v>308</v>
+      </c>
+      <c r="D52" s="2"/>
+      <c r="E52" t="s">
+        <v>232</v>
+      </c>
+      <c r="F52" t="s">
+        <v>10</v>
+      </c>
+      <c r="H52">
+        <v>1</v>
+      </c>
+      <c r="I52">
+        <v>9</v>
+      </c>
+      <c r="K52">
+        <v>1</v>
+      </c>
+      <c r="L52">
+        <v>1</v>
+      </c>
+      <c r="M52">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>309</v>
+      </c>
+      <c r="C53" t="s">
+        <v>310</v>
+      </c>
+      <c r="D53" s="2"/>
+      <c r="E53" t="s">
+        <v>232</v>
+      </c>
+      <c r="F53" t="s">
+        <v>10</v>
+      </c>
+      <c r="H53">
+        <v>1</v>
+      </c>
+      <c r="I53">
+        <v>9</v>
+      </c>
+      <c r="K53">
+        <v>1</v>
+      </c>
+      <c r="L53">
+        <v>1</v>
+      </c>
+      <c r="M53">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>311</v>
+      </c>
+      <c r="C54" t="s">
+        <v>312</v>
+      </c>
+      <c r="D54" s="2"/>
+      <c r="E54" t="s">
+        <v>232</v>
+      </c>
+      <c r="F54" t="s">
+        <v>10</v>
+      </c>
+      <c r="H54">
+        <v>1</v>
+      </c>
+      <c r="I54">
+        <v>9</v>
+      </c>
+      <c r="K54">
+        <v>1</v>
+      </c>
+      <c r="L54">
+        <v>1</v>
+      </c>
+      <c r="M54">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>313</v>
+      </c>
+      <c r="C55" t="s">
+        <v>314</v>
+      </c>
+      <c r="D55" s="2"/>
+      <c r="E55" t="s">
+        <v>232</v>
+      </c>
+      <c r="F55" t="s">
+        <v>10</v>
+      </c>
+      <c r="H55">
+        <v>1</v>
+      </c>
+      <c r="I55">
+        <v>9</v>
+      </c>
+      <c r="K55">
+        <v>1</v>
+      </c>
+      <c r="L55">
+        <v>1</v>
+      </c>
+      <c r="M55">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>315</v>
+      </c>
+      <c r="C56" t="s">
+        <v>316</v>
+      </c>
+      <c r="D56" s="2"/>
+      <c r="E56" t="s">
+        <v>232</v>
+      </c>
+      <c r="F56" t="s">
+        <v>10</v>
+      </c>
+      <c r="H56">
+        <v>1</v>
+      </c>
+      <c r="I56">
+        <v>9</v>
+      </c>
+      <c r="K56">
+        <v>1</v>
+      </c>
+      <c r="L56">
+        <v>1</v>
+      </c>
+      <c r="M56">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>317</v>
+      </c>
+      <c r="C57" t="s">
+        <v>318</v>
+      </c>
+      <c r="D57" s="2"/>
+      <c r="E57" t="s">
+        <v>232</v>
+      </c>
+      <c r="F57" t="s">
+        <v>10</v>
+      </c>
+      <c r="H57">
+        <v>1</v>
+      </c>
+      <c r="I57">
+        <v>9</v>
+      </c>
+      <c r="K57">
+        <v>1</v>
+      </c>
+      <c r="L57">
+        <v>1</v>
+      </c>
+      <c r="M57">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>319</v>
+      </c>
+      <c r="C58" t="s">
+        <v>320</v>
+      </c>
+      <c r="D58" s="2"/>
+      <c r="E58" t="s">
+        <v>232</v>
+      </c>
+      <c r="F58" t="s">
+        <v>10</v>
+      </c>
+      <c r="H58">
+        <v>1</v>
+      </c>
+      <c r="I58">
+        <v>9</v>
+      </c>
+      <c r="K58">
+        <v>1</v>
+      </c>
+      <c r="L58">
+        <v>1</v>
+      </c>
+      <c r="M58">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>321</v>
+      </c>
+      <c r="C59" t="s">
+        <v>322</v>
+      </c>
+      <c r="D59" s="2"/>
+      <c r="E59" t="s">
+        <v>232</v>
+      </c>
+      <c r="F59" t="s">
+        <v>10</v>
+      </c>
+      <c r="H59">
+        <v>1</v>
+      </c>
+      <c r="I59">
+        <v>9</v>
+      </c>
+      <c r="K59">
+        <v>1</v>
+      </c>
+      <c r="L59">
+        <v>1</v>
+      </c>
+      <c r="M59">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>323</v>
+      </c>
+      <c r="C60" t="s">
+        <v>324</v>
+      </c>
+      <c r="D60" s="2"/>
+      <c r="E60" t="s">
+        <v>232</v>
+      </c>
+      <c r="F60" t="s">
+        <v>10</v>
+      </c>
+      <c r="H60">
+        <v>1</v>
+      </c>
+      <c r="I60">
+        <v>9</v>
+      </c>
+      <c r="K60">
+        <v>1</v>
+      </c>
+      <c r="L60">
+        <v>1</v>
+      </c>
+      <c r="M60">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>325</v>
+      </c>
+      <c r="C61" t="s">
+        <v>326</v>
+      </c>
+      <c r="D61" s="2"/>
+      <c r="E61" t="s">
+        <v>232</v>
+      </c>
+      <c r="F61" t="s">
+        <v>10</v>
+      </c>
+      <c r="H61">
+        <v>1</v>
+      </c>
+      <c r="I61">
+        <v>9</v>
+      </c>
+      <c r="K61">
+        <v>1</v>
+      </c>
+      <c r="L61">
+        <v>1</v>
+      </c>
+      <c r="M61">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>327</v>
+      </c>
+      <c r="C62" t="s">
+        <v>328</v>
+      </c>
+      <c r="D62" s="2"/>
+      <c r="E62" t="s">
+        <v>232</v>
+      </c>
+      <c r="F62" t="s">
+        <v>10</v>
+      </c>
+      <c r="H62">
+        <v>1</v>
+      </c>
+      <c r="I62">
+        <v>9</v>
+      </c>
+      <c r="K62">
+        <v>1</v>
+      </c>
+      <c r="L62">
+        <v>1</v>
+      </c>
+      <c r="M62">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>329</v>
+      </c>
+      <c r="C63" t="s">
+        <v>330</v>
+      </c>
+      <c r="D63" s="2"/>
+      <c r="E63" t="s">
+        <v>232</v>
+      </c>
+      <c r="F63" t="s">
+        <v>10</v>
+      </c>
+      <c r="H63">
+        <v>1</v>
+      </c>
+      <c r="I63">
+        <v>9</v>
+      </c>
+      <c r="K63">
+        <v>1</v>
+      </c>
+      <c r="L63">
+        <v>1</v>
+      </c>
+      <c r="M63">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>331</v>
+      </c>
+      <c r="C64" t="s">
+        <v>332</v>
+      </c>
+      <c r="D64" s="2"/>
+      <c r="E64" t="s">
+        <v>232</v>
+      </c>
+      <c r="F64" t="s">
+        <v>10</v>
+      </c>
+      <c r="H64">
+        <v>1</v>
+      </c>
+      <c r="I64">
+        <v>9</v>
+      </c>
+      <c r="K64">
+        <v>1</v>
+      </c>
+      <c r="L64">
+        <v>1</v>
+      </c>
+      <c r="M64">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>333</v>
+      </c>
+      <c r="C65" t="s">
+        <v>334</v>
+      </c>
+      <c r="D65" s="2"/>
+      <c r="E65" t="s">
+        <v>232</v>
+      </c>
+      <c r="F65" t="s">
+        <v>10</v>
+      </c>
+      <c r="H65">
+        <v>1</v>
+      </c>
+      <c r="I65">
+        <v>9</v>
+      </c>
+      <c r="K65">
+        <v>1</v>
+      </c>
+      <c r="L65">
+        <v>1</v>
+      </c>
+      <c r="M65">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>335</v>
+      </c>
+      <c r="C66" t="s">
+        <v>336</v>
+      </c>
+      <c r="D66" s="2"/>
+      <c r="E66" t="s">
+        <v>232</v>
+      </c>
+      <c r="F66" t="s">
+        <v>10</v>
+      </c>
+      <c r="H66">
+        <v>1</v>
+      </c>
+      <c r="I66">
+        <v>9</v>
+      </c>
+      <c r="K66">
+        <v>1</v>
+      </c>
+      <c r="L66">
+        <v>1</v>
+      </c>
+      <c r="M66">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>337</v>
+      </c>
+      <c r="C67" t="s">
+        <v>338</v>
+      </c>
+      <c r="D67" s="2"/>
+      <c r="E67" t="s">
+        <v>339</v>
+      </c>
+      <c r="F67" t="s">
+        <v>10</v>
+      </c>
+      <c r="H67">
+        <v>1</v>
+      </c>
+      <c r="I67">
+        <v>9</v>
+      </c>
+      <c r="K67">
+        <v>1</v>
+      </c>
+      <c r="L67">
+        <v>1</v>
+      </c>
+      <c r="M67">
         <v>1</v>
       </c>
     </row>
@@ -2532,7 +5381,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3AAB86F1-282F-448F-ADF2-AFB060352DFE}">
   <dimension ref="A1:O52"/>
   <sheetViews>
@@ -3946,7 +6795,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:R52"/>
   <sheetViews>
